--- a/OPRFileImport/(OPR)Import Year.xlsx
+++ b/OPRFileImport/(OPR)Import Year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPRFileImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPRFileImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823BECB6-728C-462F-BCF1-35A39FD1A513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944A1BD-C5A1-4056-B6D5-DCCECB4A79D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>company_code</t>
   </si>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A82D93-3B36-472F-B965-95B34A319CFE}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,13 +704,61 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44927</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45291</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44927</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45291</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{0E972419-EBCF-44E1-98A5-94E5D2A86B30}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1 F4:G5" xr:uid="{0E972419-EBCF-44E1-98A5-94E5D2A86B30}">
       <formula1>36526</formula1>
       <formula2>2958465</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{EC763000-D17F-4AB4-B7A5-67E7432DF428}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H4:H5" xr:uid="{EC763000-D17F-4AB4-B7A5-67E7432DF428}">
       <formula1>"TAX,LEAVE"</formula1>
     </dataValidation>
   </dataValidations>
